--- a/统计文档/新统计.xlsx
+++ b/统计文档/新统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\tsp\统计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7396AB3-8F93-453B-ABBA-BDC99F23DF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8512FD-5612-4883-8F17-B918D11BCA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6740" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5562,8 +5562,1237 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>optimal_lambda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-38DB-4C01-A68F-659A8A961F7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$I$1</c:f>
@@ -6800,7 +8029,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$J$1</c:f>
@@ -8037,7 +9266,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$1</c:f>
@@ -9274,17 +10503,9 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>complete_lambda</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>com_lambda</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -10511,7 +11732,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$M$1</c:f>
@@ -11743,1235 +12964,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-38DB-4C01-A68F-659A8A961F7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>optimal_lambda</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$197</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="196"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$197</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="196"/>
-                <c:pt idx="0">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-38DB-4C01-A68F-659A8A961F7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14460,16 +14452,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>308429</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>187779</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>117929</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14762,8 +14754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P197"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF106" sqref="AF106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/统计文档/新统计.xlsx
+++ b/统计文档/新统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\tsp\统计文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\tsp\统计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8512FD-5612-4883-8F17-B918D11BCA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6733C276-B0E1-4B16-8B1A-1528ABF040E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6740" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14754,24 +14754,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF106" sqref="AF106"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="14.58203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.58203125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>8.4745762711864406E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>18</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>19</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>21</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>22</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>4.065040650406504E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>23</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>25</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>26</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>9.0909090909090905E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>9.2436974789915971E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>28</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>0.23333333333333334</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>29</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>31</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>4.4247787610619468E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>32</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>0.24576271186440679</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>33</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>9.2307692307692313E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>34</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>0.12307692307692308</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>35</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>5.1724137931034482E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>36</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>37</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>0.23770491803278687</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>38</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>4.3103448275862072E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>39</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>0.19834710743801653</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>41</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>9.90990990990991E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>42</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>0.18803418803418803</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>43</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>9.4488188976377951E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>44</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>0.16379310344827586</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>45</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>1.7857142857142856E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>46</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>0.19008264462809918</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>47</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>48</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>4.6875E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>49</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>51</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>7.2727272727272724E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>52</v>
       </c>
@@ -17071,7 +17071,7 @@
         <v>6.8181818181818177E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>53</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>7.2727272727272724E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>54</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>0.11904761904761904</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>55</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>0.30578512396694213</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>56</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>0.12686567164179105</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>57</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>0.21641791044776118</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>58</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>0.11023622047244094</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>59</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>4.8387096774193547E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>60</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>0.18548387096774194</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>61</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>62</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>0.30894308943089432</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>63</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>6.8702290076335881E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>64</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>8.2089552238805971E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>65</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>66</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>0.33884297520661155</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>67</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>0.21951219512195122</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>68</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>0.1076923076923077</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>69</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>0.15833333333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>70</v>
       </c>
@@ -17917,7 +17917,7 @@
         <v>6.1538461538461542E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>71</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>0.28695652173913044</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>72</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>0.1889763779527559</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>73</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>0.2734375</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>74</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>75</v>
       </c>
@@ -18152,7 +18152,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>76</v>
       </c>
@@ -18199,7 +18199,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>77</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>78</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>9.4890510948905105E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>79</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>0.16935483870967741</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>80</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>0.2231404958677686</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>81</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>82</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>0.26356589147286824</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>83</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>0.25438596491228072</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>84</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>85</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>0.24590163934426229</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>86</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>3.937007874015748E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>87</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>5.4263565891472867E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>88</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>89</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>90</v>
       </c>
@@ -18857,7 +18857,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>91</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>0.13740458015267176</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>92</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>94</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>0.22608695652173913</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>96</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>0.14960629921259844</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>97</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>6.1538461538461542E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>98</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>0.10569105691056911</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>99</v>
       </c>
@@ -19280,7 +19280,7 @@
         <v>0.22580645161290322</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>100</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>0.21212121212121213</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>101</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>0.10743801652892562</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>102</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>0.1487603305785124</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>103</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>0.27692307692307694</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>104</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>7.8125E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>105</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>0.18604651162790697</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>106</v>
       </c>
@@ -19609,7 +19609,7 @@
         <v>0.28346456692913385</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>107</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>0.24193548387096775</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>108</v>
       </c>
@@ -19703,7 +19703,7 @@
         <v>3.787878787878788E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>109</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>0.29133858267716534</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>110</v>
       </c>
@@ -19797,7 +19797,7 @@
         <v>0.18461538461538463</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>111</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>7.7519379844961239E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -19891,7 +19891,7 @@
         <v>0.14074074074074075</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>0.1640625</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>114</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>0.28346456692913385</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>115</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>0.23387096774193547</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>116</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>0.23809523809523808</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>117</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>0.23846153846153847</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>118</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>0.12592592592592591</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>119</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>120</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>0.24615384615384617</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>121</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>0.19083969465648856</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>122</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>0.22556390977443608</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>123</v>
       </c>
@@ -20408,7 +20408,7 @@
         <v>0.26119402985074625</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>124</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>0.23622047244094488</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>125</v>
       </c>
@@ -20502,7 +20502,7 @@
         <v>0.31496062992125984</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>126</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>0.23622047244094488</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>127</v>
       </c>
@@ -20596,7 +20596,7 @@
         <v>0.31007751937984496</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>128</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>0.33884297520661155</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>129</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>4.4776119402985072E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>130</v>
       </c>
@@ -20737,7 +20737,7 @@
         <v>5.46875E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>131</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>5.3030303030303032E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>132</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>0.12121212121212122</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>133</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>8.7591240875912413E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>134</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>135</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>4.5112781954887216E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>136</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>137</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>0.296875</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>138</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>0.30303030303030304</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>139</v>
       </c>
@@ -21160,7 +21160,7 @@
         <v>0.26771653543307089</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>140</v>
       </c>
@@ -21207,7 +21207,7 @@
         <v>0.21951219512195122</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>141</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>0.31538461538461537</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>142</v>
       </c>
@@ -21301,7 +21301,7 @@
         <v>0.1417910447761194</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>143</v>
       </c>
@@ -21348,7 +21348,7 @@
         <v>0.22727272727272727</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>144</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>145</v>
       </c>
@@ -21442,7 +21442,7 @@
         <v>0.1171875</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>146</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>0.29268292682926828</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>147</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>0.29104477611940299</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>148</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>0.25563909774436089</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>149</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>0.12121212121212122</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>150</v>
       </c>
@@ -21677,7 +21677,7 @@
         <v>0.1951219512195122</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>151</v>
       </c>
@@ -21724,7 +21724,7 @@
         <v>0.31060606060606061</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>152</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>0.18248175182481752</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>153</v>
       </c>
@@ -21818,7 +21818,7 @@
         <v>0.29545454545454547</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>154</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>0.24427480916030533</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>155</v>
       </c>
@@ -21912,7 +21912,7 @@
         <v>7.03125E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>156</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>0.19083969465648856</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>157</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>0.20895522388059701</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>158</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>159</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>0.11450381679389313</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>160</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>0.29850746268656714</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>161</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>0.38095238095238093</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>162</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>0.2846153846153846</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>163</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>0.25954198473282442</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>164</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>0.30158730158730157</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>165</v>
       </c>
@@ -22382,7 +22382,7 @@
         <v>0.27692307692307694</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>166</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>0.29133858267716534</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>167</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>0.21481481481481482</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>168</v>
       </c>
@@ -22523,7 +22523,7 @@
         <v>0.33846153846153848</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>169</v>
       </c>
@@ -22570,7 +22570,7 @@
         <v>9.7744360902255634E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>170</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>0.23770491803278687</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>171</v>
       </c>
@@ -22664,7 +22664,7 @@
         <v>0.18045112781954886</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>172</v>
       </c>
@@ -22711,7 +22711,7 @@
         <v>0.26771653543307089</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>173</v>
       </c>
@@ -22758,7 +22758,7 @@
         <v>0.3359375</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>174</v>
       </c>
@@ -22805,7 +22805,7 @@
         <v>0.29104477611940299</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>175</v>
       </c>
@@ -22852,7 +22852,7 @@
         <v>2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>176</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v>0.11851851851851852</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>177</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>0.2868217054263566</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>178</v>
       </c>
@@ -22993,7 +22993,7 @@
         <v>0.32592592592592595</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>179</v>
       </c>
@@ -23040,7 +23040,7 @@
         <v>0.4296875</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>180</v>
       </c>
@@ -23087,7 +23087,7 @@
         <v>0.26190476190476192</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>181</v>
       </c>
@@ -23134,7 +23134,7 @@
         <v>0.26515151515151514</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>182</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>0.328125</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>183</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>0.29545454545454547</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>184</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>5.3030303030303032E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>185</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>0.21804511278195488</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>186</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>0.2932330827067669</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>187</v>
       </c>
@@ -23416,7 +23416,7 @@
         <v>0.31297709923664124</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>188</v>
       </c>
@@ -23463,7 +23463,7 @@
         <v>0.17164179104477612</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>189</v>
       </c>
@@ -23510,7 +23510,7 @@
         <v>0.25362318840579712</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>190</v>
       </c>
@@ -23557,7 +23557,7 @@
         <v>0.265625</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>191</v>
       </c>
@@ -23604,7 +23604,7 @@
         <v>0.20155038759689922</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>192</v>
       </c>
@@ -23651,7 +23651,7 @@
         <v>0.27737226277372262</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>193</v>
       </c>
@@ -23698,7 +23698,7 @@
         <v>0.13533834586466165</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>194</v>
       </c>
@@ -23745,7 +23745,7 @@
         <v>9.6296296296296297E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>195</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>0.26470588235294118</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>196</v>
       </c>
@@ -23839,7 +23839,7 @@
         <v>0.32307692307692309</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>197</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>0.21323529411764705</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>198</v>
       </c>
@@ -23933,7 +23933,7 @@
         <v>0.27692307692307694</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>199</v>
       </c>
@@ -23980,7 +23980,7 @@
         <v>0.31060606060606061</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>200</v>
       </c>
